--- a/Mifos Automation Excels/Client/Createclient.xlsx
+++ b/Mifos Automation Excels/Client/Createclient.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -20,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>office</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>middlename</t>
   </si>
@@ -55,16 +47,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>Head Office</t>
-  </si>
-  <si>
-    <t>Eresh</t>
-  </si>
-  <si>
-    <t>Bhutanal</t>
-  </si>
-  <si>
-    <t>Eresh N Bhutanal</t>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
+    <t>Jhon N Deer</t>
   </si>
 </sst>
 </file>
@@ -195,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -454,65 +443,57 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
-        <v>36892</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>36892</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" s="6">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
         <v>42005</v>
       </c>
     </row>
@@ -526,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -538,10 +519,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
